--- a/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,112 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.169</v>
+        <v>0.148</v>
       </c>
       <c r="E2">
-        <v>0.0644</v>
+        <v>0.161</v>
       </c>
       <c r="G2">
-        <v>0.1049190938511327</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="H2">
-        <v>0.1049190938511327</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="I2">
-        <v>0.07482200647249192</v>
+        <v>0.0942211055276382</v>
       </c>
       <c r="J2">
-        <v>0.05294441326501129</v>
+        <v>0.07058413454556019</v>
       </c>
       <c r="K2">
-        <v>6.452999999999999</v>
+        <v>2.59</v>
       </c>
       <c r="L2">
-        <v>0.04176699029126213</v>
+        <v>0.06507537688442211</v>
       </c>
       <c r="M2">
-        <v>4.104</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.04365957446808511</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6359832635983265</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.104</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04365957446808511</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.6359832635983265</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>46.79</v>
+        <v>5.91</v>
       </c>
       <c r="V2">
-        <v>0.4977659574468085</v>
+        <v>0.2281853281853282</v>
       </c>
       <c r="W2">
-        <v>0.1160240963855422</v>
+        <v>0.148</v>
       </c>
       <c r="X2">
-        <v>0.05652291242710686</v>
+        <v>0.06622990893707995</v>
       </c>
       <c r="Y2">
-        <v>0.0595011839584353</v>
+        <v>0.08177009106292005</v>
       </c>
       <c r="Z2">
-        <v>4.764254216904622</v>
+        <v>5.342281879194631</v>
       </c>
       <c r="AA2">
-        <v>0.200661043581917</v>
+        <v>0.3770803429413819</v>
       </c>
       <c r="AB2">
-        <v>0.05343113322978443</v>
+        <v>0.0650807253810682</v>
       </c>
       <c r="AC2">
-        <v>0.147315214363691</v>
+        <v>0.3119996175603137</v>
       </c>
       <c r="AD2">
-        <v>11.879</v>
+        <v>1.97</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.879</v>
+        <v>1.97</v>
       </c>
       <c r="AG2">
-        <v>-34.911</v>
+        <v>-3.94</v>
       </c>
       <c r="AH2">
-        <v>0.1121941083689872</v>
+        <v>0.07068532472192322</v>
       </c>
       <c r="AI2">
-        <v>0.1183414857689357</v>
+        <v>0.09305621162021729</v>
       </c>
       <c r="AJ2">
-        <v>-0.5908206265125489</v>
+        <v>-0.1794171220400729</v>
       </c>
       <c r="AK2">
-        <v>-0.6514583216704921</v>
+        <v>-0.2581913499344692</v>
       </c>
       <c r="AL2">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.8825408618127786</v>
-      </c>
-      <c r="AO2">
-        <v>22.53411306042885</v>
+        <v>0.4539170506912443</v>
       </c>
       <c r="AP2">
-        <v>-2.59368499257058</v>
-      </c>
-      <c r="AQ2">
-        <v>22.53411306042885</v>
+        <v>-0.9078341013824885</v>
       </c>
     </row>
     <row r="3">
@@ -725,103 +716,100 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.184</v>
+        <v>0.148</v>
       </c>
       <c r="E3">
-        <v>-0.0706</v>
+        <v>0.161</v>
       </c>
       <c r="G3">
-        <v>0.08946015424164525</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="H3">
-        <v>0.08946015424164525</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="I3">
-        <v>0.08894601542416453</v>
+        <v>0.0942211055276382</v>
       </c>
       <c r="J3">
-        <v>0.0552833695867115</v>
+        <v>0.07058413454556019</v>
       </c>
       <c r="K3">
-        <v>2.03</v>
+        <v>2.59</v>
       </c>
       <c r="L3">
-        <v>0.05218508997429305</v>
+        <v>0.06507537688442211</v>
       </c>
       <c r="M3">
-        <v>0.984</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03489361702127659</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.4847290640394089</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>0.984</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03489361702127659</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.4847290640394089</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>13.8</v>
+        <v>5.91</v>
       </c>
       <c r="V3">
-        <v>0.4893617021276596</v>
+        <v>0.2281853281853282</v>
       </c>
       <c r="W3">
-        <v>0.122289156626506</v>
+        <v>0.148</v>
       </c>
       <c r="X3">
-        <v>0.05652291242710686</v>
+        <v>0.06622990893707995</v>
       </c>
       <c r="Y3">
-        <v>0.06576624419939914</v>
+        <v>0.08177009106292005</v>
       </c>
       <c r="Z3">
-        <v>12.50803858520901</v>
+        <v>5.342281879194631</v>
       </c>
       <c r="AA3">
-        <v>0.6914865199109573</v>
+        <v>0.3770803429413819</v>
       </c>
       <c r="AB3">
-        <v>0.05343113322978443</v>
+        <v>0.0650807253810682</v>
       </c>
       <c r="AC3">
-        <v>0.6380553866811729</v>
+        <v>0.3119996175603137</v>
       </c>
       <c r="AD3">
-        <v>3.75</v>
+        <v>1.97</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.75</v>
+        <v>1.97</v>
       </c>
       <c r="AG3">
-        <v>-10.05</v>
+        <v>-3.94</v>
       </c>
       <c r="AH3">
-        <v>0.1173708920187793</v>
+        <v>0.07068532472192322</v>
       </c>
       <c r="AI3">
-        <v>0.1764705882352941</v>
+        <v>0.09305621162021729</v>
       </c>
       <c r="AJ3">
-        <v>-0.5537190082644629</v>
+        <v>-0.1794171220400729</v>
       </c>
       <c r="AK3">
-        <v>-1.348993288590604</v>
+        <v>-0.2581913499344692</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,278 +818,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.946969696969697</v>
+        <v>0.4539170506912443</v>
       </c>
       <c r="AP3">
-        <v>-2.537878787878788</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Palestinian Authority</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Al Mashreq Insurance Company PLC (PLSE:MIC)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.145</v>
-      </c>
-      <c r="E4">
-        <v>0.0644</v>
-      </c>
-      <c r="G4">
-        <v>0.1216730038022814</v>
-      </c>
-      <c r="H4">
-        <v>0.1216730038022814</v>
-      </c>
-      <c r="I4">
-        <v>0.0376425855513308</v>
-      </c>
-      <c r="J4">
-        <v>0.0324948815443112</v>
-      </c>
-      <c r="K4">
-        <v>0.963</v>
-      </c>
-      <c r="L4">
-        <v>0.03661596958174905</v>
-      </c>
-      <c r="M4">
-        <v>0.12</v>
-      </c>
-      <c r="N4">
-        <v>0.009677419354838708</v>
-      </c>
-      <c r="O4">
-        <v>0.1246105919003115</v>
-      </c>
-      <c r="P4">
-        <v>0.12</v>
-      </c>
-      <c r="Q4">
-        <v>0.009677419354838708</v>
-      </c>
-      <c r="R4">
-        <v>0.1246105919003115</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>4.69</v>
-      </c>
-      <c r="V4">
-        <v>0.3782258064516129</v>
-      </c>
-      <c r="W4">
-        <v>0.1160240963855422</v>
-      </c>
-      <c r="X4">
-        <v>0.05498791999326445</v>
-      </c>
-      <c r="Y4">
-        <v>0.06103617639227771</v>
-      </c>
-      <c r="Z4">
-        <v>6.175158487907959</v>
-      </c>
-      <c r="AA4">
-        <v>0.200661043581917</v>
-      </c>
-      <c r="AB4">
-        <v>0.05334582921822597</v>
-      </c>
-      <c r="AC4">
-        <v>0.147315214363691</v>
-      </c>
-      <c r="AD4">
-        <v>0.879</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.879</v>
-      </c>
-      <c r="AG4">
-        <v>-3.811</v>
-      </c>
-      <c r="AH4">
-        <v>0.06619474358008887</v>
-      </c>
-      <c r="AI4">
-        <v>0.06029220111118733</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.4437070671789499</v>
-      </c>
-      <c r="AK4">
-        <v>-0.3853776923854789</v>
-      </c>
-      <c r="AL4">
-        <v>0.042</v>
-      </c>
-      <c r="AM4">
-        <v>0.042</v>
-      </c>
-      <c r="AN4">
-        <v>0.7204918032786886</v>
-      </c>
-      <c r="AO4">
-        <v>23.57142857142857</v>
-      </c>
-      <c r="AP4">
-        <v>-3.123770491803279</v>
-      </c>
-      <c r="AQ4">
-        <v>23.57142857142857</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Palestinian Authority</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Trust International Insurance P.L.C (PLSE:TRUST)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.169</v>
-      </c>
-      <c r="E5">
-        <v>0.107</v>
-      </c>
-      <c r="G5">
-        <v>0.1067189249720045</v>
-      </c>
-      <c r="H5">
-        <v>0.1067189249720045</v>
-      </c>
-      <c r="I5">
-        <v>0.07961926091825308</v>
-      </c>
-      <c r="J5">
-        <v>0.05079933126192767</v>
-      </c>
-      <c r="K5">
-        <v>3.46</v>
-      </c>
-      <c r="L5">
-        <v>0.0387458006718925</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>0.05617977528089887</v>
-      </c>
-      <c r="O5">
-        <v>0.8670520231213873</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>0.05617977528089887</v>
-      </c>
-      <c r="R5">
-        <v>0.8670520231213873</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>28.3</v>
-      </c>
-      <c r="V5">
-        <v>0.5299625468164795</v>
-      </c>
-      <c r="W5">
-        <v>0.06491557223264541</v>
-      </c>
-      <c r="X5">
-        <v>0.05659186208677498</v>
-      </c>
-      <c r="Y5">
-        <v>0.008323710145870425</v>
-      </c>
-      <c r="Z5">
-        <v>3.563447725458899</v>
-      </c>
-      <c r="AA5">
-        <v>0.1810207614401493</v>
-      </c>
-      <c r="AB5">
-        <v>0.05428563810789615</v>
-      </c>
-      <c r="AC5">
-        <v>0.1267351233322532</v>
-      </c>
-      <c r="AD5">
-        <v>7.25</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>7.25</v>
-      </c>
-      <c r="AG5">
-        <v>-21.05</v>
-      </c>
-      <c r="AH5">
-        <v>0.1195383347073372</v>
-      </c>
-      <c r="AI5">
-        <v>0.1123160340821069</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.6506955177743433</v>
-      </c>
-      <c r="AK5">
-        <v>-0.5806896551724138</v>
-      </c>
-      <c r="AL5">
-        <v>0.471</v>
-      </c>
-      <c r="AM5">
-        <v>0.471</v>
-      </c>
-      <c r="AN5">
-        <v>0.8756038647342996</v>
-      </c>
-      <c r="AO5">
-        <v>15.09554140127389</v>
-      </c>
-      <c r="AP5">
-        <v>-2.542270531400967</v>
-      </c>
-      <c r="AQ5">
-        <v>15.09554140127389</v>
+        <v>-0.9078341013824885</v>
       </c>
     </row>
   </sheetData>
